--- a/项目进度控制表-樊配茹 .xlsx
+++ b/项目进度控制表-樊配茹 .xlsx
@@ -295,14 +295,56 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,6 +358,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -323,31 +373,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -358,6 +388,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -381,24 +420,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -412,32 +436,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -458,13 +458,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,7 +506,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,13 +518,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,55 +602,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,19 +614,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,55 +632,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -750,6 +750,33 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -780,11 +807,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -806,15 +839,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -823,30 +847,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -855,10 +855,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -867,140 +867,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1098,24 +1098,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1124,24 +1112,6 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1149,12 +1119,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1164,23 +1128,8 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
@@ -1582,7 +1531,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" s="61" customFormat="1" ht="23.1" customHeight="1" spans="1:7">
+    <row r="3" s="44" customFormat="1" ht="23.1" customHeight="1" spans="1:7">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -2904,7 +2853,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -2920,15 +2869,15 @@
   </cols>
   <sheetData>
     <row r="1" s="32" customFormat="1" ht="32.4" spans="1:7">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="35"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3"/>
     </row>
     <row r="2" s="32" customFormat="1" spans="1:7">
       <c r="A2" s="4" t="s">
@@ -2965,364 +2914,370 @@
       <c r="G3" s="7"/>
     </row>
     <row r="4" s="32" customFormat="1" ht="15.6" spans="1:7">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="38">
+      <c r="C4" s="10">
         <v>43638</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="41">
+      <c r="D4" s="35"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="37">
         <v>0.8</v>
       </c>
-      <c r="G4" s="42" t="s">
+      <c r="G4" s="14" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="5" s="32" customFormat="1" ht="15.6" spans="1:7">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="47">
+      <c r="C5" s="17"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="13">
         <v>0.8</v>
       </c>
-      <c r="G5" s="42"/>
+      <c r="G5" s="14"/>
     </row>
     <row r="6" s="32" customFormat="1" ht="15.6" spans="1:7">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="46">
+      <c r="C6" s="12">
         <v>43639</v>
       </c>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="47">
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="13">
         <v>0.3</v>
       </c>
-      <c r="G6" s="42"/>
+      <c r="G6" s="14"/>
     </row>
     <row r="7" s="32" customFormat="1" ht="15.6" spans="1:7">
-      <c r="A7" s="43"/>
-      <c r="B7" s="44" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="38">
+      <c r="C7" s="10">
         <v>43640</v>
       </c>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="47">
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="13">
         <v>0.3</v>
       </c>
-      <c r="G7" s="42"/>
+      <c r="G7" s="14"/>
     </row>
     <row r="8" s="32" customFormat="1" ht="15.6" spans="1:7">
-      <c r="A8" s="48"/>
-      <c r="B8" s="44" t="s">
+      <c r="A8" s="38"/>
+      <c r="B8" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="47">
+      <c r="C8" s="17"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="13">
         <v>0.3</v>
       </c>
-      <c r="G8" s="42"/>
+      <c r="G8" s="14"/>
     </row>
     <row r="9" s="32" customFormat="1" ht="15.6" spans="1:7">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="38">
+      <c r="C9" s="10">
         <v>43641</v>
       </c>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="42"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="G9" s="14"/>
     </row>
     <row r="10" s="32" customFormat="1" ht="15.6" spans="1:7">
-      <c r="A10" s="48"/>
-      <c r="B10" s="44" t="s">
+      <c r="A10" s="38"/>
+      <c r="B10" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="42"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="G10" s="14"/>
     </row>
     <row r="11" s="32" customFormat="1" ht="15.6" spans="1:7">
-      <c r="A11" s="52"/>
-      <c r="B11" s="44" t="s">
+      <c r="A11" s="40"/>
+      <c r="B11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="45"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="42"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="G11" s="14"/>
     </row>
     <row r="12" s="32" customFormat="1" ht="15.6" spans="1:7">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="38">
+      <c r="C12" s="10">
         <v>43642</v>
       </c>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="42"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="14"/>
     </row>
     <row r="13" s="32" customFormat="1" ht="15.6" spans="1:7">
-      <c r="A13" s="43"/>
-      <c r="B13" s="44" t="s">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="42"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="14"/>
     </row>
     <row r="14" s="32" customFormat="1" ht="15.6" spans="1:7">
-      <c r="A14" s="53"/>
-      <c r="B14" s="44" t="s">
+      <c r="A14" s="41"/>
+      <c r="B14" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="51"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="42"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="14"/>
     </row>
     <row r="15" s="32" customFormat="1" ht="15.6" spans="1:7">
-      <c r="A15" s="54"/>
-      <c r="B15" s="44" t="s">
+      <c r="A15" s="42"/>
+      <c r="B15" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="42"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="14"/>
     </row>
     <row r="16" s="32" customFormat="1" spans="1:7">
-      <c r="A16" s="55" t="s">
+      <c r="A16" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="56"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="57"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="28"/>
     </row>
     <row r="17" s="32" customFormat="1" ht="15.6" spans="1:7">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="38">
+      <c r="C17" s="10">
         <v>43643</v>
       </c>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="42"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="14"/>
     </row>
     <row r="18" s="32" customFormat="1" ht="15.6" spans="1:7">
-      <c r="A18" s="54"/>
-      <c r="B18" s="44" t="s">
+      <c r="A18" s="42"/>
+      <c r="B18" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="42"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="14"/>
     </row>
     <row r="19" s="32" customFormat="1" ht="15.6" spans="1:7">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="42"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="14"/>
     </row>
     <row r="20" s="32" customFormat="1" ht="15.6" spans="1:7">
-      <c r="A20" s="54"/>
-      <c r="B20" s="44" t="s">
+      <c r="A20" s="42"/>
+      <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="45"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="42"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="14"/>
     </row>
     <row r="21" s="32" customFormat="1" ht="15.6" spans="1:7">
-      <c r="A21" s="54"/>
-      <c r="B21" s="44" t="s">
+      <c r="A21" s="42"/>
+      <c r="B21" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="38">
+      <c r="C21" s="10">
         <v>43646</v>
       </c>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="42"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="14"/>
     </row>
     <row r="22" s="32" customFormat="1" ht="15.6" spans="1:7">
-      <c r="A22" s="53"/>
-      <c r="B22" s="44" t="s">
+      <c r="A22" s="41"/>
+      <c r="B22" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="45"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="42"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="14"/>
     </row>
     <row r="23" s="32" customFormat="1" ht="15.6" spans="1:7">
-      <c r="A23" s="49" t="s">
+      <c r="A23" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="58" t="s">
+      <c r="C23" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="42"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="14"/>
     </row>
     <row r="24" s="32" customFormat="1" ht="15.6" spans="1:7">
-      <c r="A24" s="52"/>
-      <c r="B24" s="44" t="s">
+      <c r="A24" s="40"/>
+      <c r="B24" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="51"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="42"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="14"/>
     </row>
     <row r="25" s="32" customFormat="1" ht="15.6" spans="1:7">
-      <c r="A25" s="52"/>
-      <c r="B25" s="44" t="s">
+      <c r="A25" s="40"/>
+      <c r="B25" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="45"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="42"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="14"/>
     </row>
     <row r="26" s="32" customFormat="1" ht="28.8" spans="1:7">
-      <c r="A26" s="49" t="s">
+      <c r="A26" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="44" t="s">
+      <c r="B26" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="38">
+      <c r="C26" s="10">
         <v>43650</v>
       </c>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="42"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="14"/>
     </row>
     <row r="27" s="32" customFormat="1" ht="15.6" spans="1:7">
-      <c r="A27" s="52"/>
-      <c r="B27" s="44" t="s">
+      <c r="A27" s="40"/>
+      <c r="B27" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="51"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="42"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="14"/>
     </row>
     <row r="28" s="32" customFormat="1" ht="15.6" spans="1:7">
-      <c r="A28" s="54"/>
-      <c r="B28" s="44" t="s">
+      <c r="A28" s="42"/>
+      <c r="B28" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="45"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="42"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="14"/>
     </row>
     <row r="29" s="32" customFormat="1" ht="15.6" spans="1:7">
-      <c r="A29" s="54"/>
-      <c r="B29" s="44" t="s">
+      <c r="A29" s="42"/>
+      <c r="B29" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="38">
+      <c r="C29" s="10">
         <v>43651</v>
       </c>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="42"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="14"/>
     </row>
     <row r="30" s="32" customFormat="1" ht="15.6" spans="1:7">
-      <c r="A30" s="43"/>
-      <c r="B30" s="44" t="s">
+      <c r="A30" s="15"/>
+      <c r="B30" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="51"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="59"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="43"/>
     </row>
     <row r="31" s="32" customFormat="1" ht="15.6" spans="1:7">
-      <c r="A31" s="39"/>
-      <c r="B31" s="37" t="s">
+      <c r="A31" s="35"/>
+      <c r="B31" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="45"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="60"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="13">
